--- a/fund-type.xlsx
+++ b/fund-type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,63 +19,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>混合型</t>
-  </si>
-  <si>
-    <t>债券型</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>混合型-偏股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合型-灵活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合型-偏债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合型-平衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券型-中短债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券型-混合债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券型-长债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券型-可转债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>股票型</t>
-  </si>
-  <si>
-    <t>定开债券</t>
-  </si>
-  <si>
-    <t>联接基金</t>
-  </si>
-  <si>
-    <t>股票指数</t>
-  </si>
-  <si>
-    <t>QDII-指数</t>
-  </si>
-  <si>
-    <t>理财型</t>
-  </si>
-  <si>
-    <t>债券指数</t>
-  </si>
-  <si>
-    <t>保本型</t>
-  </si>
-  <si>
-    <t>其他创新</t>
-  </si>
-  <si>
-    <t>混合-FOF</t>
-  </si>
-  <si>
-    <t>股票-FOF</t>
-  </si>
-  <si>
-    <t>固定收益</t>
-  </si>
-  <si>
-    <t>分级杠杆</t>
-  </si>
-  <si>
-    <t>ETF-场内</t>
-  </si>
-  <si>
-    <t>QDII-ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数型-股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>货币型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QDII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品（不含QDII）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,13 +395,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -435,7 +432,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -443,7 +440,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -451,7 +448,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -459,7 +456,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -467,7 +464,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -475,7 +472,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -483,7 +480,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -491,7 +488,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -499,7 +496,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -511,54 +508,6 @@
       </c>
       <c r="B13">
         <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
